--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1116786666666667</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N2">
-        <v>0.335036</v>
+        <v>6.688873</v>
       </c>
       <c r="O2">
-        <v>0.004038118587908128</v>
+        <v>0.1952194720484055</v>
       </c>
       <c r="P2">
-        <v>0.004457407469075136</v>
+        <v>0.2133131830560358</v>
       </c>
       <c r="Q2">
-        <v>0.2135633003977778</v>
+        <v>3.588368550188333</v>
       </c>
       <c r="R2">
-        <v>1.92206970358</v>
+        <v>32.295316951695</v>
       </c>
       <c r="S2">
-        <v>0.0005918956128479701</v>
+        <v>0.02682861294648021</v>
       </c>
       <c r="T2">
-        <v>0.0007656633688084103</v>
+        <v>0.03376186873356866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H3">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I3">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J3">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.229624333333333</v>
+        <v>5.009802</v>
       </c>
       <c r="N3">
-        <v>6.688872999999999</v>
+        <v>15.029406</v>
       </c>
       <c r="O3">
-        <v>0.08061958235370766</v>
+        <v>0.4386438050955876</v>
       </c>
       <c r="P3">
-        <v>0.08899053376322248</v>
+        <v>0.4792990438451266</v>
       </c>
       <c r="Q3">
-        <v>4.263714328673889</v>
+        <v>8.062800387809999</v>
       </c>
       <c r="R3">
-        <v>38.373428958065</v>
+        <v>72.56520349029</v>
       </c>
       <c r="S3">
-        <v>0.01181698260365226</v>
+        <v>0.06028192139236421</v>
       </c>
       <c r="T3">
-        <v>0.01528619322912051</v>
+        <v>0.07586043755285971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H4">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I4">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J4">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.050022333333333</v>
+        <v>2.9062955</v>
       </c>
       <c r="N4">
-        <v>9.150067</v>
+        <v>5.812591</v>
       </c>
       <c r="O4">
-        <v>0.1102838370602107</v>
+        <v>0.2544668465644318</v>
       </c>
       <c r="P4">
-        <v>0.1217349090495885</v>
+        <v>0.1853678920219993</v>
       </c>
       <c r="Q4">
-        <v>5.832562791403889</v>
+        <v>4.677406509177501</v>
       </c>
       <c r="R4">
-        <v>52.493065122635</v>
+        <v>28.064439055065</v>
       </c>
       <c r="S4">
-        <v>0.01616508230328976</v>
+        <v>0.03497085850378556</v>
       </c>
       <c r="T4">
-        <v>0.02091080100061684</v>
+        <v>0.02933886386300392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H5">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I5">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J5">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.80447</v>
+        <v>1.275394666666666</v>
       </c>
       <c r="N5">
-        <v>15.60894</v>
+        <v>3.826184</v>
       </c>
       <c r="O5">
-        <v>0.2821969165322952</v>
+        <v>0.111669876291575</v>
       </c>
       <c r="P5">
-        <v>0.2076654620409319</v>
+        <v>0.1220198810768384</v>
       </c>
       <c r="Q5">
-        <v>14.92450098845</v>
+        <v>2.052626553506666</v>
       </c>
       <c r="R5">
-        <v>89.54700593070001</v>
+        <v>18.47363898156</v>
       </c>
       <c r="S5">
-        <v>0.04136359872016975</v>
+        <v>0.01534656280632259</v>
       </c>
       <c r="T5">
-        <v>0.03567137138674158</v>
+        <v>0.01931253919135266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.912301666666667</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H6">
-        <v>5.736905</v>
+        <v>14.172296</v>
       </c>
       <c r="I6">
-        <v>0.1465770754282357</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J6">
-        <v>0.1717732502851657</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.46031833333333</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N6">
-        <v>43.380955</v>
+        <v>6.688873</v>
       </c>
       <c r="O6">
-        <v>0.5228615454658784</v>
+        <v>0.1952194720484055</v>
       </c>
       <c r="P6">
-        <v>0.5771516876771821</v>
+        <v>0.2133131830560358</v>
       </c>
       <c r="Q6">
-        <v>27.65249084936389</v>
+        <v>10.53296534026755</v>
       </c>
       <c r="R6">
-        <v>248.872417644275</v>
+        <v>94.79668806240799</v>
       </c>
       <c r="S6">
-        <v>0.07663951618827593</v>
+        <v>0.07875023045720825</v>
       </c>
       <c r="T6">
-        <v>0.09913922129987839</v>
+        <v>0.09910146859766605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J7">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1116786666666667</v>
+        <v>5.009802</v>
       </c>
       <c r="N7">
-        <v>0.335036</v>
+        <v>15.029406</v>
       </c>
       <c r="O7">
-        <v>0.004038118587908128</v>
+        <v>0.4386438050955876</v>
       </c>
       <c r="P7">
-        <v>0.004457407469075136</v>
+        <v>0.4792990438451266</v>
       </c>
       <c r="Q7">
-        <v>0.5275810402951111</v>
+        <v>23.666798948464</v>
       </c>
       <c r="R7">
-        <v>4.748229362656</v>
+        <v>213.001190536176</v>
       </c>
       <c r="S7">
-        <v>0.001462203021730852</v>
+        <v>0.1769459797091301</v>
       </c>
       <c r="T7">
-        <v>0.001891474218086226</v>
+        <v>0.2226737159982816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J8">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.229624333333333</v>
+        <v>2.9062955</v>
       </c>
       <c r="N8">
-        <v>6.688872999999999</v>
+        <v>5.812591</v>
       </c>
       <c r="O8">
-        <v>0.08061958235370766</v>
+        <v>0.2544668465644318</v>
       </c>
       <c r="P8">
-        <v>0.08899053376322248</v>
+        <v>0.1853678920219993</v>
       </c>
       <c r="Q8">
-        <v>10.53296534026755</v>
+        <v>13.72962669648933</v>
       </c>
       <c r="R8">
-        <v>94.79668806240798</v>
+        <v>82.377760178936</v>
       </c>
       <c r="S8">
-        <v>0.02919235638132591</v>
+        <v>0.1026502254124487</v>
       </c>
       <c r="T8">
-        <v>0.03776260111615786</v>
+        <v>0.0861185889547576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,55 +980,55 @@
         <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J9">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.050022333333333</v>
+        <v>1.275394666666666</v>
       </c>
       <c r="N9">
-        <v>9.150067</v>
+        <v>3.826184</v>
       </c>
       <c r="O9">
-        <v>0.1102838370602107</v>
+        <v>0.111669876291575</v>
       </c>
       <c r="P9">
-        <v>0.1217349090495885</v>
+        <v>0.1220198810768384</v>
       </c>
       <c r="Q9">
-        <v>14.40860643820355</v>
+        <v>6.025090244273777</v>
       </c>
       <c r="R9">
-        <v>129.677457943832</v>
+        <v>54.22581219846399</v>
       </c>
       <c r="S9">
-        <v>0.03993378507515536</v>
+        <v>0.04504688185463871</v>
       </c>
       <c r="T9">
-        <v>0.05165748105953264</v>
+        <v>0.05668824232795155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.724098666666666</v>
+        <v>0.476314</v>
       </c>
       <c r="H10">
-        <v>14.172296</v>
+        <v>1.428942</v>
       </c>
       <c r="I10">
-        <v>0.3621000695990751</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J10">
-        <v>0.42434402311411</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.80447</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N10">
-        <v>15.60894</v>
+        <v>6.688873</v>
       </c>
       <c r="O10">
-        <v>0.2821969165322952</v>
+        <v>0.1952194720484055</v>
       </c>
       <c r="P10">
-        <v>0.2076654620409319</v>
+        <v>0.2133131830560358</v>
       </c>
       <c r="Q10">
-        <v>36.86908632104</v>
+        <v>1.062001284707333</v>
       </c>
       <c r="R10">
-        <v>221.21451792624</v>
+        <v>9.558011562366</v>
       </c>
       <c r="S10">
-        <v>0.1021835231169885</v>
+        <v>0.007940104539870185</v>
       </c>
       <c r="T10">
-        <v>0.08812159762429952</v>
+        <v>0.009992047212454929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.724098666666666</v>
+        <v>0.476314</v>
       </c>
       <c r="H11">
-        <v>14.172296</v>
+        <v>1.428942</v>
       </c>
       <c r="I11">
-        <v>0.3621000695990751</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J11">
-        <v>0.42434402311411</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.46031833333333</v>
+        <v>5.009802</v>
       </c>
       <c r="N11">
-        <v>43.380955</v>
+        <v>15.029406</v>
       </c>
       <c r="O11">
-        <v>0.5228615454658784</v>
+        <v>0.4386438050955876</v>
       </c>
       <c r="P11">
-        <v>0.5771516876771821</v>
+        <v>0.4792990438451266</v>
       </c>
       <c r="Q11">
-        <v>68.31197055807556</v>
+        <v>2.386238829828</v>
       </c>
       <c r="R11">
-        <v>614.8077350226799</v>
+        <v>21.476149468452</v>
       </c>
       <c r="S11">
-        <v>0.1893282020038745</v>
+        <v>0.01784083130478814</v>
       </c>
       <c r="T11">
-        <v>0.2449108690960337</v>
+        <v>0.02245139567265717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H12">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I12">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J12">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1116786666666667</v>
+        <v>2.9062955</v>
       </c>
       <c r="N12">
-        <v>0.335036</v>
+        <v>5.812591</v>
       </c>
       <c r="O12">
-        <v>0.004038118587908128</v>
+        <v>0.2544668465644318</v>
       </c>
       <c r="P12">
-        <v>0.004457407469075136</v>
+        <v>0.1853678920219993</v>
       </c>
       <c r="Q12">
-        <v>0.03794055620044445</v>
+        <v>1.384309234787</v>
       </c>
       <c r="R12">
-        <v>0.341465005804</v>
+        <v>8.305855408722</v>
       </c>
       <c r="S12">
-        <v>0.000105153126601</v>
+        <v>0.01034985569037757</v>
       </c>
       <c r="T12">
-        <v>0.0001360238113046103</v>
+        <v>0.008683029816635867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H13">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I13">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J13">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.229624333333333</v>
+        <v>1.275394666666666</v>
       </c>
       <c r="N13">
-        <v>6.688872999999999</v>
+        <v>3.826184</v>
       </c>
       <c r="O13">
-        <v>0.08061958235370766</v>
+        <v>0.111669876291575</v>
       </c>
       <c r="P13">
-        <v>0.08899053376322248</v>
+        <v>0.1220198810768384</v>
       </c>
       <c r="Q13">
-        <v>0.7574695315552222</v>
+        <v>0.6074883352586665</v>
       </c>
       <c r="R13">
-        <v>6.817225783997</v>
+        <v>5.467395017327999</v>
       </c>
       <c r="S13">
-        <v>0.002099344277591096</v>
+        <v>0.004541916246395866</v>
       </c>
       <c r="T13">
-        <v>0.002715666372546539</v>
+        <v>0.005715673054569827</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3397296666666667</v>
+        <v>4.627222</v>
       </c>
       <c r="H14">
-        <v>1.019189</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I14">
-        <v>0.02604012841917865</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J14">
-        <v>0.0305163510960854</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.050022333333333</v>
+        <v>2.229624333333333</v>
       </c>
       <c r="N14">
-        <v>9.150067</v>
+        <v>6.688873</v>
       </c>
       <c r="O14">
-        <v>0.1102838370602107</v>
+        <v>0.1952194720484055</v>
       </c>
       <c r="P14">
-        <v>0.1217349090495885</v>
+        <v>0.2133131830560358</v>
       </c>
       <c r="Q14">
-        <v>1.036183070629222</v>
+        <v>10.31696676693533</v>
       </c>
       <c r="R14">
-        <v>9.325647635663001</v>
+        <v>61.901800601612</v>
       </c>
       <c r="S14">
-        <v>0.00287180527960766</v>
+        <v>0.07713530656077125</v>
       </c>
       <c r="T14">
-        <v>0.003714905225207265</v>
+        <v>0.06471280246015601</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3397296666666667</v>
+        <v>4.627222</v>
       </c>
       <c r="H15">
-        <v>1.019189</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I15">
-        <v>0.02604012841917865</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J15">
-        <v>0.0305163510960854</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.80447</v>
+        <v>5.009802</v>
       </c>
       <c r="N15">
-        <v>15.60894</v>
+        <v>15.029406</v>
       </c>
       <c r="O15">
-        <v>0.2821969165322952</v>
+        <v>0.4386438050955876</v>
       </c>
       <c r="P15">
-        <v>0.2076654620409319</v>
+        <v>0.4792990438451266</v>
       </c>
       <c r="Q15">
-        <v>2.65140999161</v>
+        <v>23.181466030044</v>
       </c>
       <c r="R15">
-        <v>15.90845994966</v>
+        <v>139.088796180264</v>
       </c>
       <c r="S15">
-        <v>0.007348443945997205</v>
+        <v>0.1733173644104612</v>
       </c>
       <c r="T15">
-        <v>0.006337192150171873</v>
+        <v>0.1454049107482656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3397296666666667</v>
+        <v>4.627222</v>
       </c>
       <c r="H16">
-        <v>1.019189</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I16">
-        <v>0.02604012841917865</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J16">
-        <v>0.0305163510960854</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.46031833333333</v>
+        <v>2.9062955</v>
       </c>
       <c r="N16">
-        <v>43.380955</v>
+        <v>5.812591</v>
       </c>
       <c r="O16">
-        <v>0.5228615454658784</v>
+        <v>0.2544668465644318</v>
       </c>
       <c r="P16">
-        <v>0.5771516876771821</v>
+        <v>0.1853678920219993</v>
       </c>
       <c r="Q16">
-        <v>4.912599127277223</v>
+        <v>13.448074476101</v>
       </c>
       <c r="R16">
-        <v>44.21339214549501</v>
+        <v>53.792297904404</v>
       </c>
       <c r="S16">
-        <v>0.01361538178938169</v>
+        <v>0.1005451864680448</v>
       </c>
       <c r="T16">
-        <v>0.01761256353685511</v>
+        <v>0.05623504186201183</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H17">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I17">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J17">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1116786666666667</v>
+        <v>1.275394666666666</v>
       </c>
       <c r="N17">
-        <v>0.335036</v>
+        <v>3.826184</v>
       </c>
       <c r="O17">
-        <v>0.004038118587908128</v>
+        <v>0.111669876291575</v>
       </c>
       <c r="P17">
-        <v>0.004457407469075136</v>
+        <v>0.1220198810768384</v>
       </c>
       <c r="Q17">
-        <v>0.641151859998</v>
+        <v>5.901534260282665</v>
       </c>
       <c r="R17">
-        <v>3.846911159988</v>
+        <v>35.40920556169599</v>
       </c>
       <c r="S17">
-        <v>0.001776967168026033</v>
+        <v>0.04412310949810497</v>
       </c>
       <c r="T17">
-        <v>0.001532430875309558</v>
+        <v>0.0370171610924904</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>5.7410415</v>
+        <v>0.27386</v>
       </c>
       <c r="H18">
-        <v>11.482083</v>
+        <v>0.82158</v>
       </c>
       <c r="I18">
-        <v>0.4400482871768651</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J18">
-        <v>0.3437942090646518</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,30 +1553,30 @@
         <v>2.229624333333333</v>
       </c>
       <c r="N18">
-        <v>6.688872999999999</v>
+        <v>6.688873</v>
       </c>
       <c r="O18">
-        <v>0.08061958235370766</v>
+        <v>0.1952194720484055</v>
       </c>
       <c r="P18">
-        <v>0.08899053376322248</v>
+        <v>0.2133131830560358</v>
       </c>
       <c r="Q18">
-        <v>12.8003658270765</v>
+        <v>0.6106049199266667</v>
       </c>
       <c r="R18">
-        <v>76.80219496245898</v>
+        <v>5.49544427934</v>
       </c>
       <c r="S18">
-        <v>0.03547650912766327</v>
+        <v>0.00456521754407565</v>
       </c>
       <c r="T18">
-        <v>0.03059443016936826</v>
+        <v>0.005744996052190167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1591,19 +1591,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>5.7410415</v>
+        <v>0.27386</v>
       </c>
       <c r="H19">
-        <v>11.482083</v>
+        <v>0.82158</v>
       </c>
       <c r="I19">
-        <v>0.4400482871768651</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J19">
-        <v>0.3437942090646518</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.050022333333333</v>
+        <v>5.009802</v>
       </c>
       <c r="N19">
-        <v>9.150067</v>
+        <v>15.029406</v>
       </c>
       <c r="O19">
-        <v>0.1102838370602107</v>
+        <v>0.4386438050955876</v>
       </c>
       <c r="P19">
-        <v>0.1217349090495885</v>
+        <v>0.4792990438451266</v>
       </c>
       <c r="Q19">
-        <v>17.5103047915935</v>
+        <v>1.37198437572</v>
       </c>
       <c r="R19">
-        <v>105.061828749561</v>
+        <v>12.34785938148</v>
       </c>
       <c r="S19">
-        <v>0.0485302136016382</v>
+        <v>0.01025770827884396</v>
       </c>
       <c r="T19">
-        <v>0.04185175677226059</v>
+        <v>0.0129085838730625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1653,19 +1653,19 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>5.7410415</v>
+        <v>0.27386</v>
       </c>
       <c r="H20">
-        <v>11.482083</v>
+        <v>0.82158</v>
       </c>
       <c r="I20">
-        <v>0.4400482871768651</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J20">
-        <v>0.3437942090646518</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.80447</v>
+        <v>2.9062955</v>
       </c>
       <c r="N20">
-        <v>15.60894</v>
+        <v>5.812591</v>
       </c>
       <c r="O20">
-        <v>0.2821969165322952</v>
+        <v>0.2544668465644318</v>
       </c>
       <c r="P20">
-        <v>0.2076654620409319</v>
+        <v>0.1853678920219993</v>
       </c>
       <c r="Q20">
-        <v>44.805786155505</v>
+        <v>0.79591808563</v>
       </c>
       <c r="R20">
-        <v>179.22314462202</v>
+        <v>4.77550851378</v>
       </c>
       <c r="S20">
-        <v>0.1241802697666293</v>
+        <v>0.005950720489775235</v>
       </c>
       <c r="T20">
-        <v>0.07139418327240765</v>
+        <v>0.004992367525590049</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1715,359 +1715,49 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>5.7410415</v>
+        <v>0.27386</v>
       </c>
       <c r="H21">
-        <v>11.482083</v>
+        <v>0.82158</v>
       </c>
       <c r="I21">
-        <v>0.4400482871768651</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J21">
-        <v>0.3437942090646518</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>14.46031833333333</v>
+        <v>1.275394666666666</v>
       </c>
       <c r="N21">
-        <v>43.380955</v>
+        <v>3.826184</v>
       </c>
       <c r="O21">
-        <v>0.5228615454658784</v>
+        <v>0.111669876291575</v>
       </c>
       <c r="P21">
-        <v>0.5771516876771821</v>
+        <v>0.1220198810768384</v>
       </c>
       <c r="Q21">
-        <v>83.01728765487749</v>
+        <v>0.3492795834133333</v>
       </c>
       <c r="R21">
-        <v>498.103725929265</v>
+        <v>3.143516250719999</v>
       </c>
       <c r="S21">
-        <v>0.2300843275129084</v>
+        <v>0.002611405886112883</v>
       </c>
       <c r="T21">
-        <v>0.1984214079753057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.3292183333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.9876550000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.02523443937664543</v>
-      </c>
-      <c r="J22">
-        <v>0.0295721664399873</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.1116786666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.335036</v>
-      </c>
-      <c r="O22">
-        <v>0.004038118587908128</v>
-      </c>
-      <c r="P22">
-        <v>0.004457407469075136</v>
-      </c>
-      <c r="Q22">
-        <v>0.03676666450888889</v>
-      </c>
-      <c r="R22">
-        <v>0.33089998058</v>
-      </c>
-      <c r="S22">
-        <v>0.0001018996587022727</v>
-      </c>
-      <c r="T22">
-        <v>0.0001318151955663325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.3292183333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.9876550000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.02523443937664543</v>
-      </c>
-      <c r="J23">
-        <v>0.0295721664399873</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.229624333333333</v>
-      </c>
-      <c r="N23">
-        <v>6.688872999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.08061958235370766</v>
-      </c>
-      <c r="P23">
-        <v>0.08899053376322248</v>
-      </c>
-      <c r="Q23">
-        <v>0.7340332069794444</v>
-      </c>
-      <c r="R23">
-        <v>6.606298862815</v>
-      </c>
-      <c r="S23">
-        <v>0.00203438996347511</v>
-      </c>
-      <c r="T23">
-        <v>0.002631642876029325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.3292183333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.9876550000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.02523443937664543</v>
-      </c>
-      <c r="J24">
-        <v>0.0295721664399873</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>3.050022333333333</v>
-      </c>
-      <c r="N24">
-        <v>9.150067</v>
-      </c>
-      <c r="O24">
-        <v>0.1102838370602107</v>
-      </c>
-      <c r="P24">
-        <v>0.1217349090495885</v>
-      </c>
-      <c r="Q24">
-        <v>1.004123269209444</v>
-      </c>
-      <c r="R24">
-        <v>9.037109422885001</v>
-      </c>
-      <c r="S24">
-        <v>0.00278295080051973</v>
-      </c>
-      <c r="T24">
-        <v>0.003599964991971146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.3292183333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.9876550000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.02523443937664543</v>
-      </c>
-      <c r="J25">
-        <v>0.0295721664399873</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>7.80447</v>
-      </c>
-      <c r="N25">
-        <v>15.60894</v>
-      </c>
-      <c r="O25">
-        <v>0.2821969165322952</v>
-      </c>
-      <c r="P25">
-        <v>0.2076654620409319</v>
-      </c>
-      <c r="Q25">
-        <v>2.56937460595</v>
-      </c>
-      <c r="R25">
-        <v>15.4162476357</v>
-      </c>
-      <c r="S25">
-        <v>0.007121080982510474</v>
-      </c>
-      <c r="T25">
-        <v>0.006141117607311303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.3292183333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.9876550000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.02523443937664543</v>
-      </c>
-      <c r="J26">
-        <v>0.0295721664399873</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>14.46031833333333</v>
-      </c>
-      <c r="N26">
-        <v>43.380955</v>
-      </c>
-      <c r="O26">
-        <v>0.5228615454658784</v>
-      </c>
-      <c r="P26">
-        <v>0.5771516876771821</v>
-      </c>
-      <c r="Q26">
-        <v>4.760601901169444</v>
-      </c>
-      <c r="R26">
-        <v>42.84541711052501</v>
-      </c>
-      <c r="S26">
-        <v>0.01319411797143785</v>
-      </c>
-      <c r="T26">
-        <v>0.0170676257691092</v>
+        <v>0.003286265410473958</v>
       </c>
     </row>
   </sheetData>
